--- a/Participation/R/R&R/OOS_results_sdm_variation.xlsx
+++ b/Participation/R/R&R/OOS_results_sdm_variation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\EconAnalysis\Participation\R\R&amp;R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27D2B95-B90F-4EEE-A99F-720C54871F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6242EC39-1C4C-426D-BFCC-CD408138CC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8892" yWindow="5424" windowWidth="30960" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,19 +37,19 @@
     <t>nProb</t>
   </si>
   <si>
-    <t>LL_test</t>
-  </si>
-  <si>
-    <t>LL_null_test</t>
+    <t>LL_test_full</t>
+  </si>
+  <si>
+    <t>LL_test_null</t>
   </si>
   <si>
     <t>pseudoR2_oos</t>
   </si>
   <si>
-    <t>LL_test_perElem</t>
-  </si>
-  <si>
-    <t>LL_test_perIndiv</t>
+    <t>LL_full_perElem</t>
+  </si>
+  <si>
+    <t>LL_full_perIndiv</t>
   </si>
   <si>
     <t>nIndiv_test</t>
@@ -112,7 +112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -124,7 +124,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,6 +156,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +466,17 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -504,37 +514,37 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>22621</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>6539</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7">
         <v>6539</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="7">
         <v>-5150.236795469219</v>
       </c>
-      <c r="G2" s="2">
-        <v>-17483.989404160711</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.70543125619581959</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="G2" s="7">
+        <v>-8029.2308768524408</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.35856411722860099</v>
+      </c>
+      <c r="I2" s="7">
         <v>-0.78761841190842929</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="7">
         <v>-122.62468560641</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="7">
         <v>42</v>
       </c>
     </row>
@@ -558,10 +568,10 @@
         <v>-5158.6994336250646</v>
       </c>
       <c r="G3" s="2">
-        <v>-17483.989404160711</v>
+        <v>-8029.2308768524408</v>
       </c>
       <c r="H3" s="2">
-        <v>0.70494723404502646</v>
+        <v>0.35751013854924302</v>
       </c>
       <c r="I3" s="2">
         <v>-0.78891259116456114</v>
@@ -593,10 +603,10 @@
         <v>-5200.8846980811022</v>
       </c>
       <c r="G4" s="2">
-        <v>-17483.989404160711</v>
+        <v>-8029.2308768524408</v>
       </c>
       <c r="H4" s="2">
-        <v>0.70253444006072008</v>
+        <v>0.35225617772745937</v>
       </c>
       <c r="I4" s="2">
         <v>-0.79536392385396881</v>
@@ -628,10 +638,10 @@
         <v>-5219.185857021037</v>
       </c>
       <c r="G5" s="2">
-        <v>-17483.989404160711</v>
+        <v>-8029.2308768524408</v>
       </c>
       <c r="H5" s="2">
-        <v>0.70148770189834275</v>
+        <v>0.34997686116269422</v>
       </c>
       <c r="I5" s="2">
         <v>-0.79816269414605245</v>
@@ -663,10 +673,10 @@
         <v>-5229.6907294937764</v>
       </c>
       <c r="G6" s="2">
-        <v>-17483.989404160711</v>
+        <v>-8029.2308768524408</v>
       </c>
       <c r="H6" s="2">
-        <v>0.70088687377897552</v>
+        <v>0.34866853255266222</v>
       </c>
       <c r="I6" s="2">
         <v>-0.79976918940109731</v>
@@ -679,37 +689,37 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>5184</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>1622</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>1622</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>-1235.001672305568</v>
       </c>
-      <c r="G7" s="3">
-        <v>-4573.9798577365391</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.72999407283863382</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="G7" s="6">
+        <v>-1886.8274291261239</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.34546124714884291</v>
+      </c>
+      <c r="I7" s="6">
         <v>-0.76140670302439462</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>-82.333444820371199</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>15</v>
       </c>
     </row>
@@ -733,10 +743,10 @@
         <v>-1296.951028951886</v>
       </c>
       <c r="G8" s="3">
-        <v>-4573.9798577365391</v>
+        <v>-1886.8274291261239</v>
       </c>
       <c r="H8" s="3">
-        <v>0.71645020981931262</v>
+        <v>0.31262869675762373</v>
       </c>
       <c r="I8" s="3">
         <v>-0.79959989454493585</v>
@@ -768,10 +778,10 @@
         <v>-1672.880141184919</v>
       </c>
       <c r="G9" s="3">
-        <v>-4573.9798577365391</v>
+        <v>-1886.8274291261239</v>
       </c>
       <c r="H9" s="3">
-        <v>0.63426158548657163</v>
+        <v>0.1133899606496043</v>
       </c>
       <c r="I9" s="3">
         <v>-1.031368767684907</v>
@@ -803,10 +813,10 @@
         <v>-1796.257343036878</v>
       </c>
       <c r="G10" s="3">
-        <v>-4573.9798577365391</v>
+        <v>-1886.8274291261239</v>
       </c>
       <c r="H10" s="3">
-        <v>0.60728787644338977</v>
+        <v>4.8001255807052168E-2</v>
       </c>
       <c r="I10" s="3">
         <v>-1.1074336270264351</v>
@@ -838,10 +848,10 @@
         <v>-1852.431996692168</v>
       </c>
       <c r="G11" s="3">
-        <v>-4513.6693841493561</v>
+        <v>-1886.8274291261239</v>
       </c>
       <c r="H11" s="3">
-        <v>0.58959510787446034</v>
+        <v>1.8229241266587981E-2</v>
       </c>
       <c r="I11" s="3">
         <v>-1.1420665824242711</v>
@@ -854,37 +864,37 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="8">
         <v>2286</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="8">
         <v>295</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="8">
         <v>295</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="8">
         <v>-190.40540513935949</v>
       </c>
-      <c r="G12" s="4">
-        <v>-528.5690434222762</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0.63977193233534901</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="G12" s="8">
+        <v>-245.86325823680281</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.22556380931073941</v>
+      </c>
+      <c r="I12" s="8">
         <v>-0.64544205131986276</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="8">
         <v>-63.468468379786501</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="8">
         <v>3</v>
       </c>
     </row>
@@ -908,10 +918,10 @@
         <v>-191.40168361342319</v>
       </c>
       <c r="G13" s="4">
-        <v>-528.5690434222762</v>
+        <v>-245.86325823680281</v>
       </c>
       <c r="H13" s="4">
-        <v>0.63788707266287714</v>
+        <v>0.22151164437479709</v>
       </c>
       <c r="I13" s="4">
         <v>-0.64881926648618038</v>
@@ -943,10 +953,10 @@
         <v>-191.53437560492159</v>
       </c>
       <c r="G14" s="4">
-        <v>-528.5690434222762</v>
+        <v>-245.86325823680281</v>
       </c>
       <c r="H14" s="4">
-        <v>0.63763603262723811</v>
+        <v>0.2209719460382096</v>
       </c>
       <c r="I14" s="4">
         <v>-0.6492690698471919</v>
@@ -978,10 +988,10 @@
         <v>-192.0539109677643</v>
       </c>
       <c r="G15" s="4">
-        <v>-528.5690434222762</v>
+        <v>-245.86325823680281</v>
       </c>
       <c r="H15" s="4">
-        <v>0.63665312345140213</v>
+        <v>0.21885883907554879</v>
       </c>
       <c r="I15" s="4">
         <v>-0.65103020667038736</v>
@@ -1013,10 +1023,10 @@
         <v>-192.10667014193851</v>
       </c>
       <c r="G16" s="4">
-        <v>-528.5690434222762</v>
+        <v>-245.86325823680281</v>
       </c>
       <c r="H16" s="4">
-        <v>0.63655330834714896</v>
+        <v>0.21864425160708131</v>
       </c>
       <c r="I16" s="4">
         <v>-0.65120905132860496</v>
@@ -1048,10 +1058,10 @@
         <v>-355.18607190220558</v>
       </c>
       <c r="G17" s="5">
-        <v>-1497.5517612095221</v>
+        <v>-637.70779650748614</v>
       </c>
       <c r="H17" s="5">
-        <v>0.76282217342836034</v>
+        <v>0.44302692573708252</v>
       </c>
       <c r="I17" s="5">
         <v>-0.64228946094431394</v>
@@ -1083,10 +1093,10 @@
         <v>-355.23245970829322</v>
       </c>
       <c r="G18" s="5">
-        <v>-1497.5517612095221</v>
+        <v>-637.70779650748614</v>
       </c>
       <c r="H18" s="5">
-        <v>0.76279119766692816</v>
+        <v>0.44295418426153249</v>
       </c>
       <c r="I18" s="5">
         <v>-0.64237334486128972</v>
@@ -1118,10 +1128,10 @@
         <v>-355.26579703872568</v>
       </c>
       <c r="G19" s="5">
-        <v>-1497.5517612095221</v>
+        <v>-637.70779650748614</v>
       </c>
       <c r="H19" s="5">
-        <v>0.76276893644611687</v>
+        <v>0.44290190744977798</v>
       </c>
       <c r="I19" s="5">
         <v>-0.64243362936478421</v>
@@ -1153,10 +1163,10 @@
         <v>-355.39216822646478</v>
       </c>
       <c r="G20" s="5">
-        <v>-1497.5517612095221</v>
+        <v>-637.70779650748614</v>
       </c>
       <c r="H20" s="5">
-        <v>0.76268455125756285</v>
+        <v>0.44270374272851959</v>
       </c>
       <c r="I20" s="5">
         <v>-0.6426621486916182</v>
@@ -1188,10 +1198,10 @@
         <v>-368.5698187431812</v>
       </c>
       <c r="G21" s="5">
-        <v>-1490.8464819610781</v>
+        <v>-637.70779650748614</v>
       </c>
       <c r="H21" s="5">
-        <v>0.75277815442247276</v>
+        <v>0.42203965395794801</v>
       </c>
       <c r="I21" s="5">
         <v>-0.66649153479779599</v>
@@ -1205,5 +1215,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>